--- a/images/gallery/Registro.xlsx
+++ b/images/gallery/Registro.xlsx
@@ -8,9 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Folders" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Filenames" sheetId="2" r:id="rId3"/>
-    <sheet name="Registro.csv" sheetId="3" r:id="rId4"/>
+    <sheet name="Filenames" sheetId="2" r:id="rId2"/>
+    <sheet name="Registro.csv" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -654,9 +653,6 @@
     <t>blanco natural</t>
   </si>
   <si>
-    <t>marco cajon L</t>
-  </si>
-  <si>
     <t>blanco-natural</t>
   </si>
   <si>
@@ -679,6 +675,9 @@
   </si>
   <si>
     <t>marco-de-galeria</t>
+  </si>
+  <si>
+    <t>marco cajon L*</t>
   </si>
 </sst>
 </file>
@@ -759,8 +758,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -970,7 +975,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="193">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1064,6 +1069,9 @@
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1157,6 +1165,9 @@
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1674,32 +1685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="14240" ySplit="1160" topLeftCell="B47" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
-      <selection pane="bottomRight" activeCell="K89" sqref="K89"/>
+    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1758,7 +1747,7 @@
         <v>209</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1784,7 +1773,7 @@
         <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1815,7 +1804,7 @@
         <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1846,7 +1835,7 @@
         <v>81</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1877,7 +1866,7 @@
         <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1908,7 +1897,7 @@
         <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1939,7 +1928,7 @@
         <v>81</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1970,7 +1959,7 @@
         <v>81</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2001,7 +1990,7 @@
         <v>81</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2032,7 +2021,7 @@
         <v>81</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2063,7 +2052,7 @@
         <v>81</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2094,7 +2083,7 @@
         <v>81</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2125,7 +2114,7 @@
         <v>81</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2156,7 +2145,7 @@
         <v>81</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2187,7 +2176,7 @@
         <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2218,7 +2207,7 @@
         <v>81</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2249,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2280,7 +2269,7 @@
         <v>81</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2311,7 +2300,7 @@
         <v>81</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2342,7 +2331,7 @@
         <v>81</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2373,7 +2362,7 @@
         <v>81</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2405,7 +2394,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J24" s="1"/>
       <c r="O24" s="11" t="s">
@@ -2436,7 +2425,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J25" s="1"/>
       <c r="O25" s="11" t="s">
@@ -2467,7 +2456,7 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J26" s="1"/>
       <c r="O26" s="11" t="s">
@@ -2498,7 +2487,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J27" s="1"/>
       <c r="O27" s="11" t="s">
@@ -2529,7 +2518,7 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J28" s="1"/>
       <c r="O28" s="11" t="s">
@@ -2560,7 +2549,7 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J29" s="1"/>
       <c r="O29" s="11" t="s">
@@ -2591,7 +2580,7 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J30" s="1"/>
       <c r="O30" s="11" t="s">
@@ -2622,7 +2611,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J31" s="1"/>
       <c r="O31" s="11" t="s">
@@ -2653,7 +2642,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J32" s="1"/>
       <c r="O32" s="11" t="s">
@@ -2684,7 +2673,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J33" s="1"/>
       <c r="O33" s="11" t="s">
@@ -2715,7 +2704,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J34" s="1"/>
       <c r="O34" s="11" t="s">
@@ -2746,7 +2735,7 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J35" s="1"/>
       <c r="O35" s="11" t="s">
@@ -2777,7 +2766,7 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J36" s="1"/>
       <c r="O36" s="11" t="s">
@@ -2809,7 +2798,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O37" s="11" t="s">
         <v>132</v>
@@ -2840,7 +2829,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>132</v>
@@ -2871,7 +2860,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>132</v>
@@ -2902,7 +2891,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O40" s="11" t="s">
         <v>132</v>
@@ -2933,7 +2922,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O41" s="11" t="s">
         <v>132</v>
@@ -2964,7 +2953,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>132</v>
@@ -2995,7 +2984,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>132</v>
@@ -3026,7 +3015,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>132</v>
@@ -3057,7 +3046,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O45" s="11" t="s">
         <v>132</v>
@@ -3088,7 +3077,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O46" s="11" t="s">
         <v>132</v>
@@ -3119,7 +3108,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O47" s="11" t="s">
         <v>132</v>
@@ -3150,7 +3139,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O48" s="11" t="s">
         <v>132</v>
@@ -3181,7 +3170,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O49" s="11" t="s">
         <v>132</v>
@@ -3212,7 +3201,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O50" s="11" t="s">
         <v>132</v>
@@ -3243,7 +3232,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>132</v>
@@ -3274,7 +3263,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O52" s="11" t="s">
         <v>132</v>
@@ -3305,7 +3294,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O53" s="11" t="s">
         <v>132</v>
@@ -3336,7 +3325,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>132</v>
@@ -3367,7 +3356,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>132</v>
@@ -3398,7 +3387,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O56" s="11" t="s">
         <v>132</v>
@@ -3418,7 +3407,7 @@
         <v>83</v>
       </c>
       <c r="K57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L57" t="s">
         <v>207</v>
@@ -3427,7 +3416,7 @@
         <v>208</v>
       </c>
       <c r="N57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3444,7 +3433,7 @@
         <v>83</v>
       </c>
       <c r="K58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L58" t="s">
         <v>207</v>
@@ -3453,7 +3442,7 @@
         <v>208</v>
       </c>
       <c r="N58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3470,7 +3459,7 @@
         <v>83</v>
       </c>
       <c r="K59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L59" t="s">
         <v>207</v>
@@ -3479,7 +3468,7 @@
         <v>208</v>
       </c>
       <c r="N59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3496,7 +3485,7 @@
         <v>83</v>
       </c>
       <c r="K60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L60" t="s">
         <v>207</v>
@@ -3505,7 +3494,7 @@
         <v>208</v>
       </c>
       <c r="N60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3528,7 +3517,7 @@
         <v>208</v>
       </c>
       <c r="O61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3551,7 +3540,7 @@
         <v>208</v>
       </c>
       <c r="O62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3574,7 +3563,7 @@
         <v>208</v>
       </c>
       <c r="O63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3597,7 +3586,7 @@
         <v>208</v>
       </c>
       <c r="O64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -3620,7 +3609,7 @@
         <v>208</v>
       </c>
       <c r="O65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -3643,7 +3632,7 @@
         <v>208</v>
       </c>
       <c r="O66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="2:17">
@@ -3666,7 +3655,7 @@
         <v>208</v>
       </c>
       <c r="O67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="2:17">
@@ -3683,7 +3672,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -3700,10 +3689,10 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q69" t="s">
         <v>217</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -3720,10 +3709,10 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q70" t="s">
         <v>217</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -3740,10 +3729,10 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q71" t="s">
         <v>217</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="72" spans="2:17">
@@ -3760,10 +3749,10 @@
         <v>83</v>
       </c>
       <c r="P72" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q72" t="s">
         <v>217</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -3780,10 +3769,10 @@
         <v>83</v>
       </c>
       <c r="P73" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q73" t="s">
         <v>217</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -3800,10 +3789,10 @@
         <v>83</v>
       </c>
       <c r="P74" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q74" t="s">
         <v>217</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="75" spans="2:17">
@@ -3820,10 +3809,10 @@
         <v>83</v>
       </c>
       <c r="P75" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q75" t="s">
         <v>217</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -3840,10 +3829,10 @@
         <v>83</v>
       </c>
       <c r="P76" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q76" t="s">
         <v>217</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="77" spans="2:17">
@@ -3866,7 +3855,7 @@
         <v>208</v>
       </c>
       <c r="Q77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="2:17">
@@ -3889,7 +3878,7 @@
         <v>208</v>
       </c>
       <c r="Q78" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="2:17">
@@ -3912,7 +3901,7 @@
         <v>208</v>
       </c>
       <c r="Q79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="2:17">
@@ -3935,7 +3924,7 @@
         <v>208</v>
       </c>
       <c r="Q80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="2:17">
@@ -3958,7 +3947,7 @@
         <v>208</v>
       </c>
       <c r="Q81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="2:17">
@@ -3981,7 +3970,7 @@
         <v>208</v>
       </c>
       <c r="Q82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="2:17">
@@ -4001,7 +3990,7 @@
         <v>208</v>
       </c>
       <c r="O83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="2:17">
@@ -4021,7 +4010,7 @@
         <v>208</v>
       </c>
       <c r="O84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="2:17">
@@ -4038,10 +4027,10 @@
         <v>83</v>
       </c>
       <c r="O85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="2:17">
@@ -4058,10 +4047,10 @@
         <v>83</v>
       </c>
       <c r="O86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="2:17">
@@ -4078,10 +4067,10 @@
         <v>83</v>
       </c>
       <c r="O87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="2:17">
@@ -4098,10 +4087,10 @@
         <v>83</v>
       </c>
       <c r="K88" t="s">
+        <v>215</v>
+      </c>
+      <c r="P88" t="s">
         <v>216</v>
-      </c>
-      <c r="P88" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="89" spans="2:17">
@@ -4118,10 +4107,10 @@
         <v>83</v>
       </c>
       <c r="K89" t="s">
+        <v>215</v>
+      </c>
+      <c r="P89" t="s">
         <v>216</v>
-      </c>
-      <c r="P89" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="90" spans="2:17">
@@ -4138,10 +4127,10 @@
         <v>83</v>
       </c>
       <c r="O90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="2:17">
@@ -4158,10 +4147,10 @@
         <v>83</v>
       </c>
       <c r="O91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4175,12 +4164,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U110"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:T92"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4255,16 +4244,16 @@
         <v>81</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>207</v>
@@ -4273,16 +4262,16 @@
         <v>208</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="S4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="2:20">
@@ -4314,7 +4303,7 @@
         <v>81</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -4351,7 +4340,7 @@
         <v>81</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -4388,7 +4377,7 @@
         <v>81</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -4425,7 +4414,7 @@
         <v>81</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -4462,7 +4451,7 @@
         <v>81</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -4499,7 +4488,7 @@
         <v>81</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -4536,7 +4525,7 @@
         <v>81</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -4573,7 +4562,7 @@
         <v>81</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -4610,7 +4599,7 @@
         <v>81</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -4647,7 +4636,7 @@
         <v>81</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -4684,7 +4673,7 @@
         <v>81</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -4721,7 +4710,7 @@
         <v>81</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4758,7 +4747,7 @@
         <v>81</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4795,7 +4784,7 @@
         <v>81</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -4832,7 +4821,7 @@
         <v>81</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -4869,7 +4858,7 @@
         <v>81</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -4906,7 +4895,7 @@
         <v>81</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -4943,7 +4932,7 @@
         <v>81</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -4980,7 +4969,7 @@
         <v>81</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -5017,7 +5006,7 @@
         <v>81</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -5055,7 +5044,7 @@
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M25" s="1"/>
       <c r="R25" s="11" t="s">
@@ -5092,7 +5081,7 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M26" s="1"/>
       <c r="R26" s="11" t="s">
@@ -5129,7 +5118,7 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M27" s="1"/>
       <c r="R27" s="11" t="s">
@@ -5166,7 +5155,7 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M28" s="1"/>
       <c r="R28" s="11" t="s">
@@ -5203,7 +5192,7 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M29" s="1"/>
       <c r="R29" s="11" t="s">
@@ -5240,7 +5229,7 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M30" s="1"/>
       <c r="R30" s="11" t="s">
@@ -5277,7 +5266,7 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M31" s="1"/>
       <c r="R31" s="11" t="s">
@@ -5314,7 +5303,7 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M32" s="1"/>
       <c r="R32" s="11" t="s">
@@ -5351,7 +5340,7 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M33" s="1"/>
       <c r="R33" s="11" t="s">
@@ -5388,7 +5377,7 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M34" s="1"/>
       <c r="R34" s="11" t="s">
@@ -5425,7 +5414,7 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M35" s="1"/>
       <c r="R35" s="11" t="s">
@@ -5462,7 +5451,7 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M36" s="1"/>
       <c r="R36" s="11" t="s">
@@ -5499,7 +5488,7 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M37" s="1"/>
       <c r="R37" s="11" t="s">
@@ -5537,7 +5526,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R38" s="11" t="s">
         <v>132</v>
@@ -5574,7 +5563,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R39" s="11" t="s">
         <v>132</v>
@@ -5611,7 +5600,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R40" s="11" t="s">
         <v>132</v>
@@ -5648,7 +5637,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R41" s="11" t="s">
         <v>132</v>
@@ -5685,7 +5674,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R42" s="11" t="s">
         <v>132</v>
@@ -5722,7 +5711,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R43" s="11" t="s">
         <v>132</v>
@@ -5759,7 +5748,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R44" s="11" t="s">
         <v>132</v>
@@ -5796,7 +5785,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R45" s="11" t="s">
         <v>132</v>
@@ -5833,7 +5822,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R46" s="11" t="s">
         <v>132</v>
@@ -5870,7 +5859,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R47" s="11" t="s">
         <v>132</v>
@@ -5907,7 +5896,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R48" s="11" t="s">
         <v>132</v>
@@ -5944,7 +5933,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R49" s="11" t="s">
         <v>132</v>
@@ -5981,7 +5970,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R50" s="11" t="s">
         <v>132</v>
@@ -6018,7 +6007,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R51" s="11" t="s">
         <v>132</v>
@@ -6055,7 +6044,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R52" s="11" t="s">
         <v>132</v>
@@ -6092,7 +6081,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R53" s="11" t="s">
         <v>132</v>
@@ -6129,7 +6118,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R54" s="11" t="s">
         <v>132</v>
@@ -6166,7 +6155,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R55" s="11" t="s">
         <v>132</v>
@@ -6203,7 +6192,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R56" s="11" t="s">
         <v>132</v>
@@ -6240,7 +6229,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R57" s="11" t="s">
         <v>132</v>
@@ -6269,7 +6258,7 @@
         <v>83</v>
       </c>
       <c r="N58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O58" t="s">
         <v>207</v>
@@ -6278,7 +6267,7 @@
         <v>208</v>
       </c>
       <c r="Q58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U58" s="11" t="s">
         <v>132</v>
@@ -6307,7 +6296,7 @@
         <v>83</v>
       </c>
       <c r="N59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O59" t="s">
         <v>207</v>
@@ -6316,7 +6305,7 @@
         <v>208</v>
       </c>
       <c r="Q59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U59" s="11" t="s">
         <v>132</v>
@@ -6345,7 +6334,7 @@
         <v>83</v>
       </c>
       <c r="N60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O60" t="s">
         <v>207</v>
@@ -6354,7 +6343,7 @@
         <v>208</v>
       </c>
       <c r="Q60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U60" s="11" t="s">
         <v>132</v>
@@ -6383,7 +6372,7 @@
         <v>83</v>
       </c>
       <c r="N61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O61" t="s">
         <v>207</v>
@@ -6392,7 +6381,7 @@
         <v>208</v>
       </c>
       <c r="Q61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U61" s="11" t="s">
         <v>132</v>
@@ -6427,7 +6416,7 @@
         <v>208</v>
       </c>
       <c r="R62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U62" s="11" t="s">
         <v>132</v>
@@ -6462,7 +6451,7 @@
         <v>208</v>
       </c>
       <c r="R63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U63" s="11" t="s">
         <v>132</v>
@@ -6497,7 +6486,7 @@
         <v>208</v>
       </c>
       <c r="R64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U64" s="11" t="s">
         <v>132</v>
@@ -6532,7 +6521,7 @@
         <v>208</v>
       </c>
       <c r="R65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U65" s="11" t="s">
         <v>132</v>
@@ -6567,7 +6556,7 @@
         <v>208</v>
       </c>
       <c r="R66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U66" s="11" t="s">
         <v>132</v>
@@ -6602,7 +6591,7 @@
         <v>208</v>
       </c>
       <c r="R67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U67" s="11" t="s">
         <v>132</v>
@@ -6637,7 +6626,7 @@
         <v>208</v>
       </c>
       <c r="R68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U68" s="11" t="s">
         <v>132</v>
@@ -6666,7 +6655,7 @@
         <v>83</v>
       </c>
       <c r="S69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U69" s="11" t="s">
         <v>132</v>
@@ -6695,10 +6684,10 @@
         <v>83</v>
       </c>
       <c r="S70" t="s">
+        <v>216</v>
+      </c>
+      <c r="T70" t="s">
         <v>217</v>
-      </c>
-      <c r="T70" t="s">
-        <v>218</v>
       </c>
       <c r="U70" s="11" t="s">
         <v>132</v>
@@ -6727,10 +6716,10 @@
         <v>83</v>
       </c>
       <c r="S71" t="s">
+        <v>216</v>
+      </c>
+      <c r="T71" t="s">
         <v>217</v>
-      </c>
-      <c r="T71" t="s">
-        <v>218</v>
       </c>
       <c r="U71" s="11" t="s">
         <v>132</v>
@@ -6759,10 +6748,10 @@
         <v>83</v>
       </c>
       <c r="S72" t="s">
+        <v>216</v>
+      </c>
+      <c r="T72" t="s">
         <v>217</v>
-      </c>
-      <c r="T72" t="s">
-        <v>218</v>
       </c>
       <c r="U72" s="11" t="s">
         <v>132</v>
@@ -6791,10 +6780,10 @@
         <v>83</v>
       </c>
       <c r="S73" t="s">
+        <v>216</v>
+      </c>
+      <c r="T73" t="s">
         <v>217</v>
-      </c>
-      <c r="T73" t="s">
-        <v>218</v>
       </c>
       <c r="U73" s="11" t="s">
         <v>132</v>
@@ -6823,10 +6812,10 @@
         <v>83</v>
       </c>
       <c r="S74" t="s">
+        <v>216</v>
+      </c>
+      <c r="T74" t="s">
         <v>217</v>
-      </c>
-      <c r="T74" t="s">
-        <v>218</v>
       </c>
       <c r="U74" s="11" t="s">
         <v>132</v>
@@ -6855,10 +6844,10 @@
         <v>83</v>
       </c>
       <c r="S75" t="s">
+        <v>216</v>
+      </c>
+      <c r="T75" t="s">
         <v>217</v>
-      </c>
-      <c r="T75" t="s">
-        <v>218</v>
       </c>
       <c r="U75" s="11" t="s">
         <v>132</v>
@@ -6887,10 +6876,10 @@
         <v>83</v>
       </c>
       <c r="S76" t="s">
+        <v>216</v>
+      </c>
+      <c r="T76" t="s">
         <v>217</v>
-      </c>
-      <c r="T76" t="s">
-        <v>218</v>
       </c>
       <c r="U76" s="11" t="s">
         <v>132</v>
@@ -6919,10 +6908,10 @@
         <v>83</v>
       </c>
       <c r="S77" t="s">
+        <v>216</v>
+      </c>
+      <c r="T77" t="s">
         <v>217</v>
-      </c>
-      <c r="T77" t="s">
-        <v>218</v>
       </c>
       <c r="U77" s="11" t="s">
         <v>132</v>
@@ -6957,7 +6946,7 @@
         <v>208</v>
       </c>
       <c r="T78" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U78" s="11" t="s">
         <v>132</v>
@@ -6992,7 +6981,7 @@
         <v>208</v>
       </c>
       <c r="T79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U79" s="11" t="s">
         <v>132</v>
@@ -7027,7 +7016,7 @@
         <v>208</v>
       </c>
       <c r="T80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U80" s="11" t="s">
         <v>132</v>
@@ -7062,7 +7051,7 @@
         <v>208</v>
       </c>
       <c r="T81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U81" s="11" t="s">
         <v>132</v>
@@ -7097,7 +7086,7 @@
         <v>208</v>
       </c>
       <c r="T82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U82" s="11" t="s">
         <v>132</v>
@@ -7132,7 +7121,7 @@
         <v>208</v>
       </c>
       <c r="T83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U83" s="11" t="s">
         <v>132</v>
@@ -7164,7 +7153,7 @@
         <v>208</v>
       </c>
       <c r="R84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U84" s="11" t="s">
         <v>132</v>
@@ -7196,7 +7185,7 @@
         <v>208</v>
       </c>
       <c r="R85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U85" s="11" t="s">
         <v>132</v>
@@ -7225,10 +7214,10 @@
         <v>83</v>
       </c>
       <c r="R86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U86" s="11" t="s">
         <v>132</v>
@@ -7257,10 +7246,10 @@
         <v>83</v>
       </c>
       <c r="R87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U87" s="11" t="s">
         <v>132</v>
@@ -7289,10 +7278,10 @@
         <v>83</v>
       </c>
       <c r="R88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U88" s="11" t="s">
         <v>132</v>
@@ -7324,7 +7313,7 @@
         <v>206</v>
       </c>
       <c r="S89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U89" s="11" t="s">
         <v>132</v>
@@ -7356,7 +7345,7 @@
         <v>206</v>
       </c>
       <c r="S90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U90" s="11" t="s">
         <v>132</v>
@@ -7385,10 +7374,10 @@
         <v>83</v>
       </c>
       <c r="R91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U91" s="11" t="s">
         <v>132</v>
@@ -7417,10 +7406,10 @@
         <v>83</v>
       </c>
       <c r="R92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U92" s="11" t="s">
         <v>132</v>
